--- a/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3793,7 +3793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>205</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>219</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>243</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>260</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>267</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>439</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>444</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>446</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>451</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>456</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>458</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>516</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>521</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>523</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>528</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>533</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>535</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>540</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>545</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>547</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>551</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>556</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>558</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>563</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>568</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>570</v>
       </c>
@@ -16999,12 +16999,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP122">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
